--- a/Performance-with-different-mappers.xlsx
+++ b/Performance-with-different-mappers.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,19 +28,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
   <si>
     <t>hadoop</t>
   </si>
   <si>
     <t>spark</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Application Type</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>FinishTime</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>FinalStatus</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Tracking UI</t>
+  </si>
+  <si>
+    <t>Blacklisted Nodes</t>
+  </si>
+  <si>
+    <t>application_1512872313403_0034</t>
+  </si>
+  <si>
+    <t>osboxes</t>
+  </si>
+  <si>
+    <t>streamjob5178667293119064775.jar</t>
+  </si>
+  <si>
+    <t>MAPREDUCE</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 22:02:24 -0600 2017</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 22:02:38 -0600 2017</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>SUCCEEDED</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>application_1512872313403_0033</t>
+  </si>
+  <si>
+    <t>streamjob2652047070281976099.jar</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 22:00:36 -0600 2017</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 22:00:51 -0600 2017</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>application_1512872313403_0032</t>
+  </si>
+  <si>
+    <t>PythonIntSum</t>
+  </si>
+  <si>
+    <t>SPARK</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 21:59:44 -0600 2017</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 21:59:58 -0600 2017</t>
+  </si>
+  <si>
+    <t>application_1512872313403_0031</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 21:58:28 -0600 2017</t>
+  </si>
+  <si>
+    <t>Sat Dec 9 21:58:42 -0600 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -63,6 +169,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF222222"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -81,7 +205,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -143,11 +267,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="61"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="64">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -178,6 +309,8 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -208,6 +341,7 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,11 +693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1812148576"/>
-        <c:axId val="1812152688"/>
+        <c:axId val="1402226000"/>
+        <c:axId val="1266468400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1812148576"/>
+        <c:axId val="1402226000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +797,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812152688"/>
+        <c:crossAx val="1266468400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1812152688"/>
+        <c:axId val="1266468400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -785,7 +919,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1812148576"/>
+        <c:crossAx val="1402226000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1173,11 +1307,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1831972816"/>
-        <c:axId val="1831974592"/>
+        <c:axId val="1402257360"/>
+        <c:axId val="1402261120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1831972816"/>
+        <c:axId val="1402257360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1293,7 +1427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831974592"/>
+        <c:crossAx val="1402261120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1301,7 +1435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1831974592"/>
+        <c:axId val="1402261120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1416,7 +1550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1831972816"/>
+        <c:crossAx val="1402257360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2913,7 +3047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -3101,4 +3235,217 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="A4" r:id="rId5"/>
+    <hyperlink ref="K4" r:id="rId6"/>
+    <hyperlink ref="A5" r:id="rId7"/>
+    <hyperlink ref="K5" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>